--- a/biology/Zoologie/Bassaricyon_gabbii/Bassaricyon_gabbii.xlsx
+++ b/biology/Zoologie/Bassaricyon_gabbii/Bassaricyon_gabbii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Olingo commun (Bassaricyon gabbii), ou Olingo de Gabbi, est l'espèce d'olingo la mieux connue, ainsi que l'espèce type, du genre Bassaricyon, de la famille des Procyonidae.
 Les olingos se déplacent quelquefois avec les kinkajous, et il arrive souvent que l'on confonde ces deux animaux.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un animal d'une longueur de 40 à 45 cm pour une queue aussi grande et un poids de 0,9 à 1,5 kg.
 S'il a l'allure d'un kinkajou, il est donc tout de même un peu plus petit que lui.
@@ -547,7 +561,9 @@
           <t>Habitat et régime alimentaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'olingo habite la jungle dense du Sud de l'Amérique centrale, et ceci jusqu'à 2 000 m d'altitude.
 Il y vit dans les arbres, et ne sort que la nuit (quelquefois en groupe) pour se nourrir principalement de fruits, mais aussi d'insectes ou encore de petits mammifères ou d'oiseaux.
@@ -581,11 +597,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce doit son nom à William More Gabb, qui a notamment rapporté à Joel Asaph Allen la peau et le crâne de l'holotype[1],[2].
-Sous-espèces
-Cinq sous-espèces sont distinguées :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce doit son nom à William More Gabb, qui a notamment rapporté à Joel Asaph Allen la peau et le crâne de l'holotype,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bassaricyon_gabbii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bassaricyon_gabbii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cinq sous-espèces sont distinguées :
 Bassaricyon gabbii gabbii
 Bassaricyon gabbii medius
 Bassaricyon gabbii orinomus
